--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4826.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4826.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fabian Anthony Allen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +869,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1275,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1374,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1515,7 +1576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1537,7 +1598,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1574,7 +1635,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1611,7 +1672,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1648,7 +1709,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1685,7 +1746,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1722,7 +1783,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1759,7 +1820,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1796,7 +1857,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1833,7 +1894,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1870,7 +1931,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1907,7 +1968,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1981,7 +2042,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2018,7 +2079,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2055,7 +2116,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2092,7 +2153,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2129,7 +2190,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2166,7 +2227,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2203,7 +2264,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2229,6 +2290,535 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>1/42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.54%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.03%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>16.19%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.74%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4826.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4826.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,6 +868,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1072,6 +1072,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1275,6 +1276,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -1374,6 +1376,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -2296,533 +2299,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4219</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.77%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.03%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>16.19%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.29%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.74%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>